--- a/Code/Results/Cases/Case_1_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_221/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.115976538290758</v>
+        <v>7.198912084953569</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.042976849462612</v>
+        <v>8.974613108529622</v>
       </c>
       <c r="E2">
-        <v>7.055984536610711</v>
+        <v>12.9751858879603</v>
       </c>
       <c r="F2">
-        <v>28.58017779218119</v>
+        <v>32.46197151789978</v>
       </c>
       <c r="G2">
-        <v>2.037332841744897</v>
+        <v>3.628922753995076</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.52668331414422</v>
+        <v>17.91155213406074</v>
       </c>
       <c r="J2">
-        <v>5.207121706755484</v>
+        <v>9.647527558444178</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.85693559778941</v>
+        <v>20.19054413580184</v>
       </c>
       <c r="N2">
-        <v>14.76946380375815</v>
+        <v>17.23930263989935</v>
       </c>
       <c r="O2">
-        <v>21.5190630572591</v>
+        <v>24.55023775341948</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.553244229857462</v>
+        <v>6.997507437259769</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.082938765051015</v>
+        <v>8.998735157011918</v>
       </c>
       <c r="E3">
-        <v>7.185213788559841</v>
+        <v>13.03237523884615</v>
       </c>
       <c r="F3">
-        <v>27.19625142713497</v>
+        <v>32.29428320408314</v>
       </c>
       <c r="G3">
-        <v>2.045266917633369</v>
+        <v>3.631934186810442</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.51812126203905</v>
+        <v>17.95571653231028</v>
       </c>
       <c r="J3">
-        <v>5.303056514523455</v>
+        <v>9.684353539510559</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22.27507724884708</v>
+        <v>19.72260192855842</v>
       </c>
       <c r="N3">
-        <v>14.50753725871793</v>
+        <v>17.18880106548365</v>
       </c>
       <c r="O3">
-        <v>20.47927522051709</v>
+        <v>24.42130678895314</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.187385318661061</v>
+        <v>6.871288594024167</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.109438554937167</v>
+        <v>9.014477137057479</v>
       </c>
       <c r="E4">
-        <v>7.268571692612539</v>
+        <v>13.06944165070674</v>
       </c>
       <c r="F4">
-        <v>26.33893215767387</v>
+        <v>32.20063308323169</v>
       </c>
       <c r="G4">
-        <v>2.050274937773213</v>
+        <v>3.63388164954294</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.52061073708021</v>
+        <v>17.98659562100642</v>
       </c>
       <c r="J4">
-        <v>5.363992824086758</v>
+        <v>9.708137620153819</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.2467531126249</v>
+        <v>19.4313280720625</v>
       </c>
       <c r="N4">
-        <v>14.34779650246517</v>
+        <v>17.15975828268506</v>
       </c>
       <c r="O4">
-        <v>19.83460367389632</v>
+        <v>24.34890014845619</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.033194915434386</v>
+        <v>6.819282695550045</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.120719116248716</v>
+        <v>9.021126592267608</v>
       </c>
       <c r="E5">
-        <v>7.303524657838764</v>
+        <v>13.08503808661739</v>
       </c>
       <c r="F5">
-        <v>25.988099151615</v>
+        <v>32.16484081968659</v>
       </c>
       <c r="G5">
-        <v>2.052351450066733</v>
+        <v>3.634700094328831</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.52354269538529</v>
+        <v>18.00012564123216</v>
       </c>
       <c r="J5">
-        <v>5.389335928814707</v>
+        <v>9.718125425726909</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.81327418700554</v>
+        <v>19.31179374640394</v>
       </c>
       <c r="N5">
-        <v>14.28304530226795</v>
+        <v>17.14842603599106</v>
       </c>
       <c r="O5">
-        <v>19.57064993205756</v>
+        <v>24.32111591738361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.0072842763074</v>
+        <v>6.810614883533242</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.122621005985768</v>
+        <v>9.022244901847579</v>
       </c>
       <c r="E6">
-        <v>7.309387339198378</v>
+        <v>13.08765757489094</v>
       </c>
       <c r="F6">
-        <v>25.92976911048553</v>
+        <v>32.159041525458</v>
       </c>
       <c r="G6">
-        <v>2.052698448743361</v>
+        <v>3.634837499159083</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.52414443433029</v>
+        <v>18.00242947341246</v>
       </c>
       <c r="J6">
-        <v>5.393575014121601</v>
+        <v>9.719801767226933</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.74042167143069</v>
+        <v>19.29189927499916</v>
       </c>
       <c r="N6">
-        <v>14.27231634158176</v>
+        <v>17.14657494776142</v>
       </c>
       <c r="O6">
-        <v>19.52675593734744</v>
+        <v>24.31660698691072</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.185326477502223</v>
+        <v>6.870589436429229</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.10958875330132</v>
+        <v>9.014565864062407</v>
       </c>
       <c r="E7">
-        <v>7.269039126759921</v>
+        <v>13.06964999834189</v>
       </c>
       <c r="F7">
-        <v>26.33420601492726</v>
+        <v>32.20014074048311</v>
       </c>
       <c r="G7">
-        <v>2.050302796007473</v>
+        <v>3.633892586692688</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.52064255608227</v>
+        <v>17.986774258427</v>
       </c>
       <c r="J7">
-        <v>5.364332540157572</v>
+        <v>9.708271121403707</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.24096558688541</v>
+        <v>19.42971917063073</v>
       </c>
       <c r="N7">
-        <v>14.34692175457739</v>
+        <v>17.15960340449234</v>
       </c>
       <c r="O7">
-        <v>19.83104847445669</v>
+        <v>24.34851844006556</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.926174082402442</v>
+        <v>7.130039814457801</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.056340820176302</v>
+        <v>8.982737399925057</v>
       </c>
       <c r="E8">
-        <v>7.099694613254992</v>
+        <v>12.99450010386875</v>
       </c>
       <c r="F8">
-        <v>28.10481419644854</v>
+        <v>32.40223896520807</v>
       </c>
       <c r="G8">
-        <v>2.040041051226283</v>
+        <v>3.629940718969742</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.52210546951953</v>
+        <v>17.92599959778081</v>
       </c>
       <c r="J8">
-        <v>5.239778173413352</v>
+        <v>9.659982165441161</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.3233017053347</v>
+        <v>20.03011044795811</v>
       </c>
       <c r="N8">
-        <v>14.67896962324302</v>
+        <v>17.22148710960409</v>
       </c>
       <c r="O8">
-        <v>21.16201597481965</v>
+        <v>24.50439439249589</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.21733298661792</v>
+        <v>7.615634752210745</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.968085217260761</v>
+        <v>8.927691427892182</v>
       </c>
       <c r="E9">
-        <v>6.800714666188838</v>
+        <v>12.86258470817622</v>
       </c>
       <c r="F9">
-        <v>31.50141121595983</v>
+        <v>32.87095191818371</v>
       </c>
       <c r="G9">
-        <v>2.020932955105526</v>
+        <v>3.622968175018213</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.58772238102724</v>
+        <v>17.83664119037646</v>
       </c>
       <c r="J9">
-        <v>5.011679702955997</v>
+        <v>9.57456114208212</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26.95809784632394</v>
+        <v>21.16958263590947</v>
       </c>
       <c r="N9">
-        <v>15.33561472179126</v>
+        <v>17.35803907625224</v>
       </c>
       <c r="O9">
-        <v>23.71123591763569</v>
+        <v>24.86254992116526</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.06748060511269</v>
+        <v>7.954728715767244</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.913997839112437</v>
+        <v>8.891718100750751</v>
       </c>
       <c r="E10">
-        <v>6.603325866969542</v>
+        <v>12.77503896262109</v>
       </c>
       <c r="F10">
-        <v>33.93575825706815</v>
+        <v>33.25721904214974</v>
       </c>
       <c r="G10">
-        <v>2.007410603478609</v>
+        <v>3.61831364632175</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.67581523365805</v>
+        <v>17.78912326377343</v>
       </c>
       <c r="J10">
-        <v>4.854054204945722</v>
+        <v>9.517410455537222</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>29.36125999680485</v>
+        <v>21.97551605710269</v>
       </c>
       <c r="N10">
-        <v>15.81741321266559</v>
+        <v>17.46707904711397</v>
       </c>
       <c r="O10">
-        <v>25.53609759647064</v>
+        <v>25.15598466247187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.43295840106968</v>
+        <v>8.104507595729507</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.89195363801849</v>
+        <v>8.876318341781074</v>
       </c>
       <c r="E11">
-        <v>6.518934080770894</v>
+        <v>12.73723733823538</v>
       </c>
       <c r="F11">
-        <v>35.02828072979484</v>
+        <v>33.44149579044595</v>
       </c>
       <c r="G11">
-        <v>2.001345815206467</v>
+        <v>3.616296670960564</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.7248604284604</v>
+        <v>17.77143094423827</v>
       </c>
       <c r="J11">
-        <v>4.784562111482966</v>
+        <v>9.492619331594808</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>30.39797796589975</v>
+        <v>22.33382761597202</v>
       </c>
       <c r="N11">
-        <v>16.03566688295896</v>
+        <v>17.51845297008461</v>
       </c>
       <c r="O11">
-        <v>26.35467054456457</v>
+        <v>25.2956434414589</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.56831019236416</v>
+        <v>8.160533989627812</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.883995666625335</v>
+        <v>8.870625216975286</v>
       </c>
       <c r="E12">
-        <v>6.487811102016787</v>
+        <v>12.72321313285768</v>
       </c>
       <c r="F12">
-        <v>35.43980874286066</v>
+        <v>33.51245750285076</v>
       </c>
       <c r="G12">
-        <v>1.999059364666948</v>
+        <v>3.615547241436046</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.74474478838577</v>
+        <v>17.76529421777104</v>
       </c>
       <c r="J12">
-        <v>4.758572781572023</v>
+        <v>9.483404450506432</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>30.78256672063094</v>
+        <v>22.46819910065167</v>
       </c>
       <c r="N12">
-        <v>16.11812020712048</v>
+        <v>17.53815067718478</v>
       </c>
       <c r="O12">
-        <v>26.66295311385147</v>
+        <v>25.34937863454483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.53929507621046</v>
+        <v>8.148499175383952</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.885691859635402</v>
+        <v>8.871845181134656</v>
       </c>
       <c r="E13">
-        <v>6.494475873263905</v>
+        <v>12.72622058644522</v>
       </c>
       <c r="F13">
-        <v>35.35127606966</v>
+        <v>33.49712298263992</v>
       </c>
       <c r="G13">
-        <v>1.999551380253014</v>
+        <v>3.615708007324851</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.7404036556227</v>
+        <v>17.76659085540858</v>
       </c>
       <c r="J13">
-        <v>4.764155409643759</v>
+        <v>9.485381355949727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>30.70009199680285</v>
+        <v>22.43931999076738</v>
       </c>
       <c r="N13">
-        <v>16.10037201601271</v>
+        <v>17.53389777347758</v>
       </c>
       <c r="O13">
-        <v>26.59663416377127</v>
+        <v>25.3377686492203</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.44415486756841</v>
+        <v>8.109131039385737</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.891290989638855</v>
+        <v>8.875847192282912</v>
       </c>
       <c r="E14">
-        <v>6.516356491769358</v>
+        <v>12.73607774021069</v>
       </c>
       <c r="F14">
-        <v>35.06218122832575</v>
+        <v>33.44731050361459</v>
       </c>
       <c r="G14">
-        <v>2.001157518060535</v>
+        <v>3.616234727704544</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.72646991352384</v>
+        <v>17.77091479717366</v>
       </c>
       <c r="J14">
-        <v>4.782417371203056</v>
+        <v>9.491857754340863</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>30.42977774091015</v>
+        <v>22.34490940379875</v>
       </c>
       <c r="N14">
-        <v>16.04245461146724</v>
+        <v>17.52006869670069</v>
       </c>
       <c r="O14">
-        <v>26.38006705434255</v>
+        <v>25.30004746992035</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.38548231721146</v>
+        <v>8.084925510095299</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.894772044599485</v>
+        <v>8.878316558775106</v>
       </c>
       <c r="E15">
-        <v>6.529869518402114</v>
+        <v>12.74215334189713</v>
       </c>
       <c r="F15">
-        <v>34.88481734017286</v>
+        <v>33.41695104768853</v>
       </c>
       <c r="G15">
-        <v>2.002142573886371</v>
+        <v>3.616559226225911</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.71810657353414</v>
+        <v>17.77363661113879</v>
       </c>
       <c r="J15">
-        <v>4.793646049836902</v>
+        <v>9.495847245149255</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>30.26316545490215</v>
+        <v>22.28690581073572</v>
       </c>
       <c r="N15">
-        <v>16.00695139896559</v>
+        <v>17.51162936533273</v>
       </c>
       <c r="O15">
-        <v>26.24719295640991</v>
+        <v>25.27705161278785</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.04316881068561</v>
+        <v>7.944846030415742</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.915491788846676</v>
+        <v>8.892743898150494</v>
       </c>
       <c r="E16">
-        <v>6.608954493609668</v>
+        <v>12.77755005903375</v>
       </c>
       <c r="F16">
-        <v>33.86405433891047</v>
+        <v>33.24534410230797</v>
       </c>
       <c r="G16">
-        <v>2.007808502825397</v>
+        <v>3.618447473623847</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.67279246248075</v>
+        <v>17.79035835120864</v>
       </c>
       <c r="J16">
-        <v>4.858640799239955</v>
+        <v>9.519054851496209</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>29.29238211050956</v>
+        <v>21.95192199490171</v>
       </c>
       <c r="N16">
-        <v>15.80312590264107</v>
+        <v>17.4637563310027</v>
       </c>
       <c r="O16">
-        <v>25.48236540262857</v>
+        <v>25.14697862968685</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.82773217433114</v>
+        <v>7.857729642908057</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.928873067926833</v>
+        <v>8.9018414738565</v>
       </c>
       <c r="E17">
-        <v>6.658892375011827</v>
+        <v>12.79978266293179</v>
       </c>
       <c r="F17">
-        <v>33.23398316128954</v>
+        <v>33.14222618726501</v>
       </c>
       <c r="G17">
-        <v>2.01130498084099</v>
+        <v>3.619631507430579</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.64730774591002</v>
+        <v>17.80162073355755</v>
       </c>
       <c r="J17">
-        <v>4.899084373671658</v>
+        <v>9.533600689491315</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>28.68245784440975</v>
+        <v>21.74420449532179</v>
       </c>
       <c r="N17">
-        <v>15.67780454206162</v>
+        <v>17.43483353533229</v>
       </c>
       <c r="O17">
-        <v>25.01016781340866</v>
+        <v>25.06873763727773</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.70181696249612</v>
+        <v>7.80720378851348</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.936809209239745</v>
+        <v>8.907164976781385</v>
       </c>
       <c r="E18">
-        <v>6.688119794508671</v>
+        <v>12.81276074720886</v>
       </c>
       <c r="F18">
-        <v>32.87018116924592</v>
+        <v>33.08372460795376</v>
       </c>
       <c r="G18">
-        <v>2.013324363908154</v>
+        <v>3.62032198665322</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.63349285078674</v>
+        <v>17.8084679737602</v>
       </c>
       <c r="J18">
-        <v>4.922554114056423</v>
+        <v>9.542080714758896</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>28.32631981215274</v>
+        <v>21.62395503151471</v>
       </c>
       <c r="N18">
-        <v>15.60564002211764</v>
+        <v>17.41836529728024</v>
       </c>
       <c r="O18">
-        <v>24.73748202111089</v>
+        <v>25.02431901779956</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.65884016222204</v>
+        <v>7.790026207901633</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.939536779999816</v>
+        <v>8.908983030462265</v>
       </c>
       <c r="E19">
-        <v>6.698100719803304</v>
+        <v>12.81718763432826</v>
       </c>
       <c r="F19">
-        <v>32.74676593648472</v>
+        <v>33.06405745923142</v>
       </c>
       <c r="G19">
-        <v>2.014009584487961</v>
+        <v>3.620557397317653</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.62895949020164</v>
+        <v>17.81084981499088</v>
       </c>
       <c r="J19">
-        <v>4.930536036455739</v>
+        <v>9.54497144211317</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>28.20481911545424</v>
+        <v>21.58311112648971</v>
       </c>
       <c r="N19">
-        <v>15.58119406938084</v>
+        <v>17.41281851990801</v>
       </c>
       <c r="O19">
-        <v>24.64496984142338</v>
+        <v>25.00938099670181</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.85087288011079</v>
+        <v>7.867047038460559</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.92742366331624</v>
+        <v>8.900863624207851</v>
       </c>
       <c r="E20">
-        <v>6.653523800799363</v>
+        <v>12.7973962542917</v>
       </c>
       <c r="F20">
-        <v>33.30120095696996</v>
+        <v>33.15311988689148</v>
       </c>
       <c r="G20">
-        <v>2.010931931558049</v>
+        <v>3.61950448711842</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.64993320003819</v>
+        <v>17.8003836092916</v>
       </c>
       <c r="J20">
-        <v>4.894757545570132</v>
+        <v>9.532040502801111</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>28.74793561036009</v>
+        <v>21.76639756053003</v>
       </c>
       <c r="N20">
-        <v>15.69115426873545</v>
+        <v>17.43789517224297</v>
       </c>
       <c r="O20">
-        <v>25.06054727500929</v>
+        <v>25.0770064036021</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.47218244602121</v>
+        <v>8.120713543693119</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.889635630627052</v>
+        <v>8.874667949943827</v>
       </c>
       <c r="E21">
-        <v>6.509906477068385</v>
+        <v>12.73317457643282</v>
       </c>
       <c r="F21">
-        <v>35.14715475962748</v>
+        <v>33.46191002789835</v>
       </c>
       <c r="G21">
-        <v>2.000685500381957</v>
+        <v>3.616079628207121</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.7305268188346</v>
+        <v>17.76962948277678</v>
       </c>
       <c r="J21">
-        <v>4.777044474614216</v>
+        <v>9.489950789155355</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>30.50939145299581</v>
+        <v>22.37267662080097</v>
       </c>
       <c r="N21">
-        <v>16.05947211684941</v>
+        <v>17.52412411301059</v>
       </c>
       <c r="O21">
-        <v>26.44372399271048</v>
+        <v>25.31110435531908</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.86049200272158</v>
+        <v>8.2824490644402</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.867222048208767</v>
+        <v>8.858354306455128</v>
       </c>
       <c r="E22">
-        <v>6.420940707366619</v>
+        <v>12.69289473992688</v>
       </c>
       <c r="F22">
-        <v>36.34087572841942</v>
+        <v>33.67057541715511</v>
       </c>
       <c r="G22">
-        <v>1.99404680503469</v>
+        <v>3.613924921134488</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.79085558026307</v>
+        <v>17.75281059623247</v>
       </c>
       <c r="J22">
-        <v>4.702016702495009</v>
+        <v>9.463450720129847</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>31.61407868948603</v>
+        <v>22.76121163545895</v>
       </c>
       <c r="N22">
-        <v>16.29902870142686</v>
+        <v>17.58189376384235</v>
       </c>
       <c r="O22">
-        <v>27.41780425145944</v>
+        <v>25.46903313325213</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.65486419208148</v>
+        <v>8.196512976363133</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.878967981623678</v>
+        <v>8.8669874823106</v>
       </c>
       <c r="E23">
-        <v>6.467954032953324</v>
+        <v>12.71423812256202</v>
       </c>
       <c r="F23">
-        <v>35.70492525725113</v>
+        <v>33.55859721086604</v>
       </c>
       <c r="G23">
-        <v>1.997585522236216</v>
+        <v>3.615067302810445</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.75794970900657</v>
+        <v>17.76148743171519</v>
       </c>
       <c r="J23">
-        <v>4.741882979781895</v>
+        <v>9.477502265641654</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>31.02869769604586</v>
+        <v>22.55458470092979</v>
       </c>
       <c r="N23">
-        <v>16.17129862355117</v>
+        <v>17.55093538064273</v>
       </c>
       <c r="O23">
-        <v>26.86183703408442</v>
+        <v>25.38430538481069</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.84041737742605</v>
+        <v>7.862836015368699</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.928078183641404</v>
+        <v>8.90130541975995</v>
       </c>
       <c r="E24">
-        <v>6.655949325656943</v>
+        <v>12.79847453826342</v>
       </c>
       <c r="F24">
-        <v>33.27081666379677</v>
+        <v>33.14819240468627</v>
       </c>
       <c r="G24">
-        <v>2.011100558276966</v>
+        <v>3.619561882586382</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.64874362806594</v>
+        <v>17.80094175328543</v>
       </c>
       <c r="J24">
-        <v>4.896713025485748</v>
+        <v>9.532745497378672</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>28.71835020487649</v>
+        <v>21.7563666516248</v>
       </c>
       <c r="N24">
-        <v>15.68511921259109</v>
+        <v>17.43651050740555</v>
       </c>
       <c r="O24">
-        <v>25.03777449604147</v>
+        <v>25.07326633721634</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.885355410144758</v>
+        <v>7.487135860670749</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.990142825427447</v>
+        <v>8.941796338785757</v>
       </c>
       <c r="E25">
-        <v>6.877856455382932</v>
+        <v>12.89662200886409</v>
       </c>
       <c r="F25">
-        <v>30.59247103924191</v>
+        <v>32.73661863382011</v>
       </c>
       <c r="G25">
-        <v>2.026003581361472</v>
+        <v>3.624771815638837</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.56307778069982</v>
+        <v>17.85762662433649</v>
       </c>
       <c r="J25">
-        <v>5.07165028568872</v>
+        <v>9.596681714212338</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>26.022212005087</v>
+        <v>20.86625575037261</v>
       </c>
       <c r="N25">
-        <v>15.1578077661625</v>
+        <v>17.31952653314243</v>
       </c>
       <c r="O25">
-        <v>23.02946085010578</v>
+        <v>24.76020610028862</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_221/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.198912084953569</v>
+        <v>9.115976538290743</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.974613108529622</v>
+        <v>5.042976849462673</v>
       </c>
       <c r="E2">
-        <v>12.9751858879603</v>
+        <v>7.055984536610772</v>
       </c>
       <c r="F2">
-        <v>32.46197151789978</v>
+        <v>28.58017779218123</v>
       </c>
       <c r="G2">
-        <v>3.628922753995076</v>
+        <v>2.037332841744895</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.91155213406074</v>
+        <v>13.52668331414428</v>
       </c>
       <c r="J2">
-        <v>9.647527558444178</v>
+        <v>5.207121706755482</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.19054413580184</v>
+        <v>23.8569355977894</v>
       </c>
       <c r="N2">
-        <v>17.23930263989935</v>
+        <v>14.76946380375812</v>
       </c>
       <c r="O2">
-        <v>24.55023775341948</v>
+        <v>21.51906305725911</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.997507437259769</v>
+        <v>8.553244229857405</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.998735157011918</v>
+        <v>5.082938765050891</v>
       </c>
       <c r="E3">
-        <v>13.03237523884615</v>
+        <v>7.185213788559841</v>
       </c>
       <c r="F3">
-        <v>32.29428320408314</v>
+        <v>27.19625142713497</v>
       </c>
       <c r="G3">
-        <v>3.631934186810442</v>
+        <v>2.045266917633367</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.95571653231028</v>
+        <v>13.51812126203914</v>
       </c>
       <c r="J3">
-        <v>9.684353539510559</v>
+        <v>5.303056514523519</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.72260192855842</v>
+        <v>22.2750772488471</v>
       </c>
       <c r="N3">
-        <v>17.18880106548365</v>
+        <v>14.50753725871794</v>
       </c>
       <c r="O3">
-        <v>24.42130678895314</v>
+        <v>20.47927522051711</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.871288594024167</v>
+        <v>8.187385318661098</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.014477137057479</v>
+        <v>5.109438554936965</v>
       </c>
       <c r="E4">
-        <v>13.06944165070674</v>
+        <v>7.268571692612406</v>
       </c>
       <c r="F4">
-        <v>32.20063308323169</v>
+        <v>26.3389321576738</v>
       </c>
       <c r="G4">
-        <v>3.63388164954294</v>
+        <v>2.050274937773478</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.98659562100642</v>
+        <v>13.52061073708019</v>
       </c>
       <c r="J4">
-        <v>9.708137620153819</v>
+        <v>5.363992824086727</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.4313280720625</v>
+        <v>21.24675311262493</v>
       </c>
       <c r="N4">
-        <v>17.15975828268506</v>
+        <v>14.34779650246521</v>
       </c>
       <c r="O4">
-        <v>24.34890014845619</v>
+        <v>19.8346036738963</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.819282695550045</v>
+        <v>8.033194915434368</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.021126592267608</v>
+        <v>5.120719116248703</v>
       </c>
       <c r="E5">
-        <v>13.08503808661739</v>
+        <v>7.303524657838826</v>
       </c>
       <c r="F5">
-        <v>32.16484081968659</v>
+        <v>25.98809915161501</v>
       </c>
       <c r="G5">
-        <v>3.634700094328831</v>
+        <v>2.05235145006673</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.00012564123216</v>
+        <v>13.52354269538529</v>
       </c>
       <c r="J5">
-        <v>9.718125425726909</v>
+        <v>5.389335928814742</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.31179374640394</v>
+        <v>20.81327418700548</v>
       </c>
       <c r="N5">
-        <v>17.14842603599106</v>
+        <v>14.28304530226794</v>
       </c>
       <c r="O5">
-        <v>24.32111591738361</v>
+        <v>19.57064993205758</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.810614883533242</v>
+        <v>8.007284276307393</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.022244901847579</v>
+        <v>5.122621005985519</v>
       </c>
       <c r="E6">
-        <v>13.08765757489094</v>
+        <v>7.309387339198126</v>
       </c>
       <c r="F6">
-        <v>32.159041525458</v>
+        <v>25.92976911048551</v>
       </c>
       <c r="G6">
-        <v>3.634837499159083</v>
+        <v>2.052698448743096</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.00242947341246</v>
+        <v>13.52414443433026</v>
       </c>
       <c r="J6">
-        <v>9.719801767226933</v>
+        <v>5.393575014121571</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.29189927499916</v>
+        <v>20.7404216714307</v>
       </c>
       <c r="N6">
-        <v>17.14657494776142</v>
+        <v>14.27231634158174</v>
       </c>
       <c r="O6">
-        <v>24.31660698691072</v>
+        <v>19.52675593734747</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.870589436429229</v>
+        <v>8.185326477502223</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.014565864062407</v>
+        <v>5.10958875330132</v>
       </c>
       <c r="E7">
-        <v>13.06964999834189</v>
+        <v>7.269039126759985</v>
       </c>
       <c r="F7">
-        <v>32.20014074048311</v>
+        <v>26.33420601492729</v>
       </c>
       <c r="G7">
-        <v>3.633892586692688</v>
+        <v>2.050302796007208</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.986774258427</v>
+        <v>13.52064255608227</v>
       </c>
       <c r="J7">
-        <v>9.708271121403707</v>
+        <v>5.364332540157603</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.42971917063073</v>
+        <v>21.24096558688536</v>
       </c>
       <c r="N7">
-        <v>17.15960340449234</v>
+        <v>14.34692175457739</v>
       </c>
       <c r="O7">
-        <v>24.34851844006556</v>
+        <v>19.83104847445673</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.130039814457801</v>
+        <v>8.926174082402435</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.982737399925057</v>
+        <v>5.056340820176366</v>
       </c>
       <c r="E8">
-        <v>12.99450010386875</v>
+        <v>7.099694613255123</v>
       </c>
       <c r="F8">
-        <v>32.40223896520807</v>
+        <v>28.10481419644854</v>
       </c>
       <c r="G8">
-        <v>3.629940718969742</v>
+        <v>2.040041051226417</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.92599959778081</v>
+        <v>13.52210546951948</v>
       </c>
       <c r="J8">
-        <v>9.659982165441161</v>
+        <v>5.239778173413417</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.03011044795811</v>
+        <v>23.3233017053347</v>
       </c>
       <c r="N8">
-        <v>17.22148710960409</v>
+        <v>14.678969623243</v>
       </c>
       <c r="O8">
-        <v>24.50439439249589</v>
+        <v>21.16201597481965</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.615634752210745</v>
+        <v>10.21733298661788</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.927691427892182</v>
+        <v>4.968085217260701</v>
       </c>
       <c r="E9">
-        <v>12.86258470817622</v>
+        <v>6.800714666188778</v>
       </c>
       <c r="F9">
-        <v>32.87095191818371</v>
+        <v>31.50141121595983</v>
       </c>
       <c r="G9">
-        <v>3.622968175018213</v>
+        <v>2.020932955105392</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.83664119037646</v>
+        <v>13.58772238102729</v>
       </c>
       <c r="J9">
-        <v>9.57456114208212</v>
+        <v>5.01167970295603</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.16958263590947</v>
+        <v>26.9580978463239</v>
       </c>
       <c r="N9">
-        <v>17.35803907625224</v>
+        <v>15.33561472179129</v>
       </c>
       <c r="O9">
-        <v>24.86254992116526</v>
+        <v>23.71123591763569</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.954728715767244</v>
+        <v>11.06748060511268</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.891718100750751</v>
+        <v>4.913997839112322</v>
       </c>
       <c r="E10">
-        <v>12.77503896262109</v>
+        <v>6.603325866969474</v>
       </c>
       <c r="F10">
-        <v>33.25721904214974</v>
+        <v>33.93575825706815</v>
       </c>
       <c r="G10">
-        <v>3.61831364632175</v>
+        <v>2.007410603478608</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.78912326377343</v>
+        <v>13.67581523365805</v>
       </c>
       <c r="J10">
-        <v>9.517410455537222</v>
+        <v>4.85405420494572</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.97551605710269</v>
+        <v>29.36125999680488</v>
       </c>
       <c r="N10">
-        <v>17.46707904711397</v>
+        <v>15.81741321266559</v>
       </c>
       <c r="O10">
-        <v>25.15598466247187</v>
+        <v>25.53609759647065</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.104507595729507</v>
+        <v>11.43295840106968</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.876318341781074</v>
+        <v>4.891953638018486</v>
       </c>
       <c r="E11">
-        <v>12.73723733823538</v>
+        <v>6.518934080770833</v>
       </c>
       <c r="F11">
-        <v>33.44149579044595</v>
+        <v>35.0282807297948</v>
       </c>
       <c r="G11">
-        <v>3.616296670960564</v>
+        <v>2.001345815206464</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.77143094423827</v>
+        <v>13.72486042846041</v>
       </c>
       <c r="J11">
-        <v>9.492619331594808</v>
+        <v>4.784562111482964</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.33382761597202</v>
+        <v>30.39797796589976</v>
       </c>
       <c r="N11">
-        <v>17.51845297008461</v>
+        <v>16.03566688295898</v>
       </c>
       <c r="O11">
-        <v>25.2956434414589</v>
+        <v>26.35467054456457</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.160533989627812</v>
+        <v>11.56831019236414</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.870625216975286</v>
+        <v>4.883995666625335</v>
       </c>
       <c r="E12">
-        <v>12.72321313285768</v>
+        <v>6.487811102016733</v>
       </c>
       <c r="F12">
-        <v>33.51245750285076</v>
+        <v>35.43980874286067</v>
       </c>
       <c r="G12">
-        <v>3.615547241436046</v>
+        <v>1.999059364667081</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.76529421777104</v>
+        <v>13.74474478838578</v>
       </c>
       <c r="J12">
-        <v>9.483404450506432</v>
+        <v>4.758572781572024</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.46819910065167</v>
+        <v>30.78256672063096</v>
       </c>
       <c r="N12">
-        <v>17.53815067718478</v>
+        <v>16.11812020712047</v>
       </c>
       <c r="O12">
-        <v>25.34937863454483</v>
+        <v>26.66295311385148</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.148499175383952</v>
+        <v>11.53929507621043</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.871845181134656</v>
+        <v>4.885691859635289</v>
       </c>
       <c r="E13">
-        <v>12.72622058644522</v>
+        <v>6.494475873263729</v>
       </c>
       <c r="F13">
-        <v>33.49712298263992</v>
+        <v>35.35127606966003</v>
       </c>
       <c r="G13">
-        <v>3.615708007324851</v>
+        <v>1.999551380253015</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.76659085540858</v>
+        <v>13.7404036556227</v>
       </c>
       <c r="J13">
-        <v>9.485381355949727</v>
+        <v>4.764155409643667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.43931999076738</v>
+        <v>30.70009199680285</v>
       </c>
       <c r="N13">
-        <v>17.53389777347758</v>
+        <v>16.1003720160127</v>
       </c>
       <c r="O13">
-        <v>25.3377686492203</v>
+        <v>26.59663416377131</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.109131039385737</v>
+        <v>11.44415486756843</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.875847192282912</v>
+        <v>4.891290989638794</v>
       </c>
       <c r="E14">
-        <v>12.73607774021069</v>
+        <v>6.516356491769296</v>
       </c>
       <c r="F14">
-        <v>33.44731050361459</v>
+        <v>35.06218122832575</v>
       </c>
       <c r="G14">
-        <v>3.616234727704544</v>
+        <v>2.001157518060669</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.77091479717366</v>
+        <v>13.72646991352382</v>
       </c>
       <c r="J14">
-        <v>9.491857754340863</v>
+        <v>4.782417371203053</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.34490940379875</v>
+        <v>30.42977774091019</v>
       </c>
       <c r="N14">
-        <v>17.52006869670069</v>
+        <v>16.04245461146723</v>
       </c>
       <c r="O14">
-        <v>25.30004746992035</v>
+        <v>26.38006705434255</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.084925510095299</v>
+        <v>11.38548231721143</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.878316558775106</v>
+        <v>4.894772044599485</v>
       </c>
       <c r="E15">
-        <v>12.74215334189713</v>
+        <v>6.529869518402053</v>
       </c>
       <c r="F15">
-        <v>33.41695104768853</v>
+        <v>34.88481734017293</v>
       </c>
       <c r="G15">
-        <v>3.616559226225911</v>
+        <v>2.002142573886637</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.77363661113879</v>
+        <v>13.71810657353419</v>
       </c>
       <c r="J15">
-        <v>9.495847245149255</v>
+        <v>4.793646049836872</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.28690581073572</v>
+        <v>30.26316545490221</v>
       </c>
       <c r="N15">
-        <v>17.51162936533273</v>
+        <v>16.00695139896558</v>
       </c>
       <c r="O15">
-        <v>25.27705161278785</v>
+        <v>26.24719295640997</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.944846030415742</v>
+        <v>11.04316881068564</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.892743898150494</v>
+        <v>4.915491788846735</v>
       </c>
       <c r="E16">
-        <v>12.77755005903375</v>
+        <v>6.608954493609611</v>
       </c>
       <c r="F16">
-        <v>33.24534410230797</v>
+        <v>33.86405433891047</v>
       </c>
       <c r="G16">
-        <v>3.618447473623847</v>
+        <v>2.007808502825399</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.79035835120864</v>
+        <v>13.67279246248071</v>
       </c>
       <c r="J16">
-        <v>9.519054851496209</v>
+        <v>4.858640799239927</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.95192199490171</v>
+        <v>29.29238211050956</v>
       </c>
       <c r="N16">
-        <v>17.4637563310027</v>
+        <v>15.80312590264107</v>
       </c>
       <c r="O16">
-        <v>25.14697862968685</v>
+        <v>25.48236540262857</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.857729642908057</v>
+        <v>10.82773217433115</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.9018414738565</v>
+        <v>4.928873067926713</v>
       </c>
       <c r="E17">
-        <v>12.79978266293179</v>
+        <v>6.658892375011708</v>
       </c>
       <c r="F17">
-        <v>33.14222618726501</v>
+        <v>33.23398316128956</v>
       </c>
       <c r="G17">
-        <v>3.619631507430579</v>
+        <v>2.01130498084112</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.80162073355755</v>
+        <v>13.64730774591002</v>
       </c>
       <c r="J17">
-        <v>9.533600689491315</v>
+        <v>4.899084373671625</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.74420449532179</v>
+        <v>28.68245784440973</v>
       </c>
       <c r="N17">
-        <v>17.43483353533229</v>
+        <v>15.67780454206162</v>
       </c>
       <c r="O17">
-        <v>25.06873763727773</v>
+        <v>25.01016781340868</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.80720378851348</v>
+        <v>10.70181696249616</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.907164976781385</v>
+        <v>4.936809209239615</v>
       </c>
       <c r="E18">
-        <v>12.81276074720886</v>
+        <v>6.688119794508605</v>
       </c>
       <c r="F18">
-        <v>33.08372460795376</v>
+        <v>32.87018116924587</v>
       </c>
       <c r="G18">
-        <v>3.62032198665322</v>
+        <v>2.013324363908555</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.8084679737602</v>
+        <v>13.63349285078675</v>
       </c>
       <c r="J18">
-        <v>9.542080714758896</v>
+        <v>4.922554114056454</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.62395503151471</v>
+        <v>28.32631981215276</v>
       </c>
       <c r="N18">
-        <v>17.41836529728024</v>
+        <v>15.60564002211768</v>
       </c>
       <c r="O18">
-        <v>25.02431901779956</v>
+        <v>24.73748202111087</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.790026207901633</v>
+        <v>10.65884016222203</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.908983030462265</v>
+        <v>4.939536779999816</v>
       </c>
       <c r="E19">
-        <v>12.81718763432826</v>
+        <v>6.698100719803235</v>
       </c>
       <c r="F19">
-        <v>33.06405745923142</v>
+        <v>32.74676593648471</v>
       </c>
       <c r="G19">
-        <v>3.620557397317653</v>
+        <v>2.014009584487964</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.81084981499088</v>
+        <v>13.62895949020163</v>
       </c>
       <c r="J19">
-        <v>9.54497144211317</v>
+        <v>4.930536036455672</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.58311112648971</v>
+        <v>28.20481911545424</v>
       </c>
       <c r="N19">
-        <v>17.41281851990801</v>
+        <v>15.58119406938084</v>
       </c>
       <c r="O19">
-        <v>25.00938099670181</v>
+        <v>24.64496984142338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.867047038460559</v>
+        <v>10.85087288011078</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.900863624207851</v>
+        <v>4.927423663316309</v>
       </c>
       <c r="E20">
-        <v>12.7973962542917</v>
+        <v>6.653523800799423</v>
       </c>
       <c r="F20">
-        <v>33.15311988689148</v>
+        <v>33.30120095696994</v>
       </c>
       <c r="G20">
-        <v>3.61950448711842</v>
+        <v>2.010931931557918</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.8003836092916</v>
+        <v>13.64993320003818</v>
       </c>
       <c r="J20">
-        <v>9.532040502801111</v>
+        <v>4.894757545570165</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.76639756053003</v>
+        <v>28.74793561036011</v>
       </c>
       <c r="N20">
-        <v>17.43789517224297</v>
+        <v>15.69115426873545</v>
       </c>
       <c r="O20">
-        <v>25.0770064036021</v>
+        <v>25.06054727500928</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.120713543693119</v>
+        <v>11.47218244602118</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.874667949943827</v>
+        <v>4.889635630627052</v>
       </c>
       <c r="E21">
-        <v>12.73317457643282</v>
+        <v>6.509906477068387</v>
       </c>
       <c r="F21">
-        <v>33.46191002789835</v>
+        <v>35.14715475962753</v>
       </c>
       <c r="G21">
-        <v>3.616079628207121</v>
+        <v>2.000685500381961</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.76962948277678</v>
+        <v>13.73052681883459</v>
       </c>
       <c r="J21">
-        <v>9.489950789155355</v>
+        <v>4.777044474614251</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.37267662080097</v>
+        <v>30.50939145299581</v>
       </c>
       <c r="N21">
-        <v>17.52412411301059</v>
+        <v>16.05947211684938</v>
       </c>
       <c r="O21">
-        <v>25.31110435531908</v>
+        <v>26.44372399271051</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.2824490644402</v>
+        <v>11.86049200272154</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.858354306455128</v>
+        <v>4.867222048208829</v>
       </c>
       <c r="E22">
-        <v>12.69289473992688</v>
+        <v>6.42094070736656</v>
       </c>
       <c r="F22">
-        <v>33.67057541715511</v>
+        <v>36.3408757284194</v>
       </c>
       <c r="G22">
-        <v>3.613924921134488</v>
+        <v>1.994046805034825</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.75281059623247</v>
+        <v>13.79085558026312</v>
       </c>
       <c r="J22">
-        <v>9.463450720129847</v>
+        <v>4.702016702494978</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.76121163545895</v>
+        <v>31.61407868948605</v>
       </c>
       <c r="N22">
-        <v>17.58189376384235</v>
+        <v>16.29902870142686</v>
       </c>
       <c r="O22">
-        <v>25.46903313325213</v>
+        <v>27.41780425145947</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.196512976363133</v>
+        <v>11.65486419208146</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.8669874823106</v>
+        <v>4.878967981623796</v>
       </c>
       <c r="E23">
-        <v>12.71423812256202</v>
+        <v>6.46795403295326</v>
       </c>
       <c r="F23">
-        <v>33.55859721086604</v>
+        <v>35.70492525725115</v>
       </c>
       <c r="G23">
-        <v>3.615067302810445</v>
+        <v>1.997585522236083</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.76148743171519</v>
+        <v>13.75794970900651</v>
       </c>
       <c r="J23">
-        <v>9.477502265641654</v>
+        <v>4.741882979781801</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.55458470092979</v>
+        <v>31.02869769604591</v>
       </c>
       <c r="N23">
-        <v>17.55093538064273</v>
+        <v>16.17129862355113</v>
       </c>
       <c r="O23">
-        <v>25.38430538481069</v>
+        <v>26.86183703408448</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.862836015368699</v>
+        <v>10.84041737742601</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.90130541975995</v>
+        <v>4.928078183641404</v>
       </c>
       <c r="E24">
-        <v>12.79847453826342</v>
+        <v>6.655949325656882</v>
       </c>
       <c r="F24">
-        <v>33.14819240468627</v>
+        <v>33.27081666379678</v>
       </c>
       <c r="G24">
-        <v>3.619561882586382</v>
+        <v>2.011100558276835</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.80094175328543</v>
+        <v>13.64874362806598</v>
       </c>
       <c r="J24">
-        <v>9.532745497378672</v>
+        <v>4.896713025485715</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.7563666516248</v>
+        <v>28.71835020487645</v>
       </c>
       <c r="N24">
-        <v>17.43651050740555</v>
+        <v>15.68511921259107</v>
       </c>
       <c r="O24">
-        <v>25.07326633721634</v>
+        <v>25.03777449604146</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.487135860670749</v>
+        <v>9.885355410144783</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.941796338785757</v>
+        <v>4.99014282542726</v>
       </c>
       <c r="E25">
-        <v>12.89662200886409</v>
+        <v>6.877856455382868</v>
       </c>
       <c r="F25">
-        <v>32.73661863382011</v>
+        <v>30.59247103924191</v>
       </c>
       <c r="G25">
-        <v>3.624771815638837</v>
+        <v>2.026003581361474</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.85762662433649</v>
+        <v>13.56307778069982</v>
       </c>
       <c r="J25">
-        <v>9.596681714212338</v>
+        <v>5.071650285688751</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.86625575037261</v>
+        <v>26.02221200508702</v>
       </c>
       <c r="N25">
-        <v>17.31952653314243</v>
+        <v>15.15780776616252</v>
       </c>
       <c r="O25">
-        <v>24.76020610028862</v>
+        <v>23.02946085010578</v>
       </c>
     </row>
   </sheetData>
